--- a/articulo_dfa/Hurst/Source_vale_multi2.xlsx
+++ b/articulo_dfa/Hurst/Source_vale_multi2.xlsx
@@ -580,10 +580,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S91"/>
+  <dimension ref="A1:S101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <pane ySplit="900" topLeftCell="A93" activePane="bottomLeft"/>
+      <selection activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5388,7 +5390,9 @@
       <c r="A82">
         <v>9</v>
       </c>
-      <c r="B82" s="11"/>
+      <c r="B82">
+        <v>1.51563076473506</v>
+      </c>
       <c r="C82" s="12">
         <v>1.448094437</v>
       </c>
@@ -5413,8 +5417,12 @@
       <c r="J82" s="11">
         <v>1.576032133</v>
       </c>
-      <c r="K82" s="11"/>
-      <c r="L82" s="12"/>
+      <c r="K82">
+        <v>1.3792365585475499</v>
+      </c>
+      <c r="L82">
+        <v>1.4179243953946901</v>
+      </c>
       <c r="M82" s="11">
         <v>1.221692373</v>
       </c>
@@ -5441,7 +5449,9 @@
       <c r="A83">
         <v>9</v>
       </c>
-      <c r="B83" s="11"/>
+      <c r="B83">
+        <v>1.54257973490762</v>
+      </c>
       <c r="C83" s="12">
         <v>1.467657676</v>
       </c>
@@ -5466,8 +5476,12 @@
       <c r="J83" s="11">
         <v>1.6029612449999999</v>
       </c>
-      <c r="K83" s="11"/>
-      <c r="L83" s="12"/>
+      <c r="K83">
+        <v>1.45323133960696</v>
+      </c>
+      <c r="L83">
+        <v>1.45441235336025</v>
+      </c>
       <c r="M83" s="11">
         <v>1.3411962399999999</v>
       </c>
@@ -5494,7 +5508,9 @@
       <c r="A84">
         <v>9</v>
       </c>
-      <c r="B84" s="11"/>
+      <c r="B84">
+        <v>1.5975597012243801</v>
+      </c>
       <c r="C84" s="12">
         <v>1.4781390860000001</v>
       </c>
@@ -5519,8 +5535,12 @@
       <c r="J84" s="11">
         <v>1.619173865</v>
       </c>
-      <c r="K84" s="11"/>
-      <c r="L84" s="12"/>
+      <c r="K84">
+        <v>1.5022230591250401</v>
+      </c>
+      <c r="L84">
+        <v>1.50631529067879</v>
+      </c>
       <c r="M84" s="11">
         <v>1.4163219979999999</v>
       </c>
@@ -5547,7 +5567,9 @@
       <c r="A85">
         <v>9</v>
       </c>
-      <c r="B85" s="11"/>
+      <c r="B85">
+        <v>1.5423757127992099</v>
+      </c>
       <c r="C85" s="12">
         <v>1.5596914770000001</v>
       </c>
@@ -5572,8 +5594,12 @@
       <c r="J85" s="11">
         <v>1.6948181929999999</v>
       </c>
-      <c r="K85" s="11"/>
-      <c r="L85" s="12"/>
+      <c r="K85">
+        <v>1.39086458261685</v>
+      </c>
+      <c r="L85">
+        <v>1.48384425703649</v>
+      </c>
       <c r="M85" s="11">
         <v>1.28262878</v>
       </c>
@@ -5600,7 +5626,9 @@
       <c r="A86">
         <v>9</v>
       </c>
-      <c r="B86" s="11"/>
+      <c r="B86">
+        <v>1.55771011715065</v>
+      </c>
       <c r="C86" s="12">
         <v>1.537513165</v>
       </c>
@@ -5625,8 +5653,12 @@
       <c r="J86" s="11">
         <v>1.6415978579999999</v>
       </c>
-      <c r="K86" s="11"/>
-      <c r="L86" s="12"/>
+      <c r="K86">
+        <v>1.46374552789837</v>
+      </c>
+      <c r="L86">
+        <v>1.46518448598394</v>
+      </c>
       <c r="M86" s="11">
         <v>1.395473889</v>
       </c>
@@ -5653,7 +5685,9 @@
       <c r="A87">
         <v>9</v>
       </c>
-      <c r="B87" s="11"/>
+      <c r="B87">
+        <v>1.48422449210259</v>
+      </c>
       <c r="C87" s="12">
         <v>1.5162541119999999</v>
       </c>
@@ -5678,8 +5712,12 @@
       <c r="J87" s="11">
         <v>1.648059546</v>
       </c>
-      <c r="K87" s="11"/>
-      <c r="L87" s="12"/>
+      <c r="K87">
+        <v>1.3856829643775099</v>
+      </c>
+      <c r="L87">
+        <v>1.3866860755928401</v>
+      </c>
       <c r="M87" s="11">
         <v>1.3666553530000001</v>
       </c>
@@ -5706,7 +5744,9 @@
       <c r="A88">
         <v>9</v>
       </c>
-      <c r="B88" s="11"/>
+      <c r="B88">
+        <v>1.5975001003224301</v>
+      </c>
       <c r="C88" s="12">
         <v>1.582064431</v>
       </c>
@@ -5731,8 +5771,12 @@
       <c r="J88" s="11">
         <v>1.6338605989999999</v>
       </c>
-      <c r="K88" s="11"/>
-      <c r="L88" s="12"/>
+      <c r="K88">
+        <v>1.55259740450018</v>
+      </c>
+      <c r="L88">
+        <v>1.5215908670937</v>
+      </c>
       <c r="M88" s="11">
         <v>1.4559641940000001</v>
       </c>
@@ -5759,7 +5803,9 @@
       <c r="A89">
         <v>9</v>
       </c>
-      <c r="B89" s="11"/>
+      <c r="B89">
+        <v>1.5706950106781701</v>
+      </c>
       <c r="C89" s="12">
         <v>1.50853177</v>
       </c>
@@ -5784,8 +5830,12 @@
       <c r="J89" s="11">
         <v>1.6480190859999999</v>
       </c>
-      <c r="K89" s="11"/>
-      <c r="L89" s="12"/>
+      <c r="K89">
+        <v>1.49121056249448</v>
+      </c>
+      <c r="L89">
+        <v>1.4802731985691899</v>
+      </c>
       <c r="M89" s="11">
         <v>1.393345238</v>
       </c>
@@ -5812,7 +5862,9 @@
       <c r="A90">
         <v>9</v>
       </c>
-      <c r="B90" s="11"/>
+      <c r="B90">
+        <v>1.54559117409575</v>
+      </c>
       <c r="C90" s="12">
         <v>1.5687852849999999</v>
       </c>
@@ -5837,8 +5889,12 @@
       <c r="J90" s="11">
         <v>1.6321745889999999</v>
       </c>
-      <c r="K90" s="11"/>
-      <c r="L90" s="12"/>
+      <c r="K90">
+        <v>1.47611314589978</v>
+      </c>
+      <c r="L90">
+        <v>1.4428712684556499</v>
+      </c>
       <c r="M90" s="11">
         <v>1.3693328570000001</v>
       </c>
@@ -5865,7 +5921,9 @@
       <c r="A91">
         <v>9</v>
       </c>
-      <c r="B91" s="11"/>
+      <c r="B91">
+        <v>1.4961218538771399</v>
+      </c>
       <c r="C91" s="12">
         <v>1.5332569140000001</v>
       </c>
@@ -5890,8 +5948,12 @@
       <c r="J91" s="11">
         <v>1.5924225279999999</v>
       </c>
-      <c r="K91" s="11"/>
-      <c r="L91" s="12"/>
+      <c r="K91">
+        <v>1.3980895490257701</v>
+      </c>
+      <c r="L91">
+        <v>1.4154019259042501</v>
+      </c>
       <c r="M91" s="11">
         <v>1.327590314</v>
       </c>
@@ -5912,6 +5974,596 @@
       </c>
       <c r="S91" s="21">
         <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>10</v>
+      </c>
+      <c r="B92">
+        <v>1.61934427605201</v>
+      </c>
+      <c r="C92">
+        <v>1.54324248058308</v>
+      </c>
+      <c r="D92">
+        <v>1.530604286952</v>
+      </c>
+      <c r="E92">
+        <v>1.5279060597079299</v>
+      </c>
+      <c r="F92">
+        <v>1.4806564985478801</v>
+      </c>
+      <c r="G92">
+        <v>1.5074008326771999</v>
+      </c>
+      <c r="H92">
+        <v>1.48495677057885</v>
+      </c>
+      <c r="I92">
+        <v>1.4907491758035101</v>
+      </c>
+      <c r="J92">
+        <v>1.54228611681689</v>
+      </c>
+      <c r="K92">
+        <v>1.5914524054152599</v>
+      </c>
+      <c r="L92">
+        <v>1.58870257241544</v>
+      </c>
+      <c r="M92">
+        <v>1.48464533321087</v>
+      </c>
+      <c r="N92">
+        <v>1.5127293540110101</v>
+      </c>
+      <c r="O92" s="1">
+        <v>1</v>
+      </c>
+      <c r="P92" s="10">
+        <v>113</v>
+      </c>
+      <c r="Q92" s="17">
+        <v>73</v>
+      </c>
+      <c r="R92" s="22">
+        <v>96</v>
+      </c>
+      <c r="S92" s="22">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>10</v>
+      </c>
+      <c r="B93">
+        <v>1.7000773394984501</v>
+      </c>
+      <c r="C93">
+        <v>1.79846179533265</v>
+      </c>
+      <c r="D93">
+        <v>1.75447451055571</v>
+      </c>
+      <c r="E93">
+        <v>1.81338215141631</v>
+      </c>
+      <c r="F93">
+        <v>1.7515986871024001</v>
+      </c>
+      <c r="G93">
+        <v>1.7998118956960301</v>
+      </c>
+      <c r="H93">
+        <v>1.7610410289402201</v>
+      </c>
+      <c r="I93">
+        <v>1.7690833562595101</v>
+      </c>
+      <c r="J93">
+        <v>1.5237035273520301</v>
+      </c>
+      <c r="K93">
+        <v>1.70813460982066</v>
+      </c>
+      <c r="L93">
+        <v>1.7414208710678001</v>
+      </c>
+      <c r="M93">
+        <v>1.7726806321142801</v>
+      </c>
+      <c r="N93">
+        <v>1.78500891714931</v>
+      </c>
+      <c r="O93" s="1">
+        <v>2</v>
+      </c>
+      <c r="P93" s="10">
+        <v>117</v>
+      </c>
+      <c r="Q93" s="17">
+        <v>73</v>
+      </c>
+      <c r="R93" s="22">
+        <v>96</v>
+      </c>
+      <c r="S93" s="22">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>10</v>
+      </c>
+      <c r="B94">
+        <v>1.85389438797039</v>
+      </c>
+      <c r="C94">
+        <v>1.8659030146579301</v>
+      </c>
+      <c r="D94">
+        <v>1.8414617466840699</v>
+      </c>
+      <c r="E94">
+        <v>1.8789898289781</v>
+      </c>
+      <c r="F94">
+        <v>1.8319551385241399</v>
+      </c>
+      <c r="G94">
+        <v>1.8718506777848001</v>
+      </c>
+      <c r="H94">
+        <v>1.84451940067207</v>
+      </c>
+      <c r="I94">
+        <v>1.8428661100552</v>
+      </c>
+      <c r="J94">
+        <v>1.6632789158230601</v>
+      </c>
+      <c r="K94" s="23">
+        <v>1.8434675684816999</v>
+      </c>
+      <c r="L94" s="23">
+        <v>1.85532648952408</v>
+      </c>
+      <c r="M94" s="23">
+        <v>1.8492203230240301</v>
+      </c>
+      <c r="N94" s="23">
+        <v>1.85958759031402</v>
+      </c>
+      <c r="O94" s="1">
+        <v>3</v>
+      </c>
+      <c r="P94" s="10">
+        <v>118</v>
+      </c>
+      <c r="Q94" s="17">
+        <v>73</v>
+      </c>
+      <c r="R94" s="22">
+        <v>96</v>
+      </c>
+      <c r="S94" s="22">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>10</v>
+      </c>
+      <c r="B95" s="23">
+        <v>1.7659163423676001</v>
+      </c>
+      <c r="C95" s="23">
+        <v>1.79708368378766</v>
+      </c>
+      <c r="D95" s="23">
+        <v>1.74359296749018</v>
+      </c>
+      <c r="E95" s="23">
+        <v>1.81195262961022</v>
+      </c>
+      <c r="F95" s="23">
+        <v>1.7291172813192599</v>
+      </c>
+      <c r="G95" s="23">
+        <v>1.7855088554976499</v>
+      </c>
+      <c r="H95" s="23">
+        <v>1.7475663000766699</v>
+      </c>
+      <c r="I95" s="23">
+        <v>1.76044111963758</v>
+      </c>
+      <c r="J95" s="23">
+        <v>1.5405779640111299</v>
+      </c>
+      <c r="K95">
+        <v>1.7567549217584499</v>
+      </c>
+      <c r="L95">
+        <v>1.7628442895315399</v>
+      </c>
+      <c r="M95">
+        <v>1.76167439020335</v>
+      </c>
+      <c r="N95">
+        <v>1.7792347130527599</v>
+      </c>
+      <c r="O95" s="1">
+        <v>4</v>
+      </c>
+      <c r="P95" s="10">
+        <v>131</v>
+      </c>
+      <c r="Q95" s="17">
+        <v>73</v>
+      </c>
+      <c r="R95" s="22">
+        <v>96</v>
+      </c>
+      <c r="S95" s="22">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>10</v>
+      </c>
+      <c r="B96">
+        <v>1.38982775475084</v>
+      </c>
+      <c r="C96">
+        <v>1.2278879198974999</v>
+      </c>
+      <c r="D96">
+        <v>1.2267744510871199</v>
+      </c>
+      <c r="E96">
+        <v>1.1804314880223501</v>
+      </c>
+      <c r="F96">
+        <v>1.19752057434684</v>
+      </c>
+      <c r="G96">
+        <v>1.19525509494782</v>
+      </c>
+      <c r="H96">
+        <v>1.42557572682949</v>
+      </c>
+      <c r="I96">
+        <v>1.3615345059266399</v>
+      </c>
+      <c r="J96">
+        <v>1.34654481417787</v>
+      </c>
+      <c r="K96">
+        <v>1.39985558280322</v>
+      </c>
+      <c r="L96">
+        <v>1.3672492210529099</v>
+      </c>
+      <c r="M96">
+        <v>1.3579153127407599</v>
+      </c>
+      <c r="N96">
+        <v>1.37334920071543</v>
+      </c>
+      <c r="O96" s="1">
+        <v>5</v>
+      </c>
+      <c r="P96" s="10">
+        <v>422</v>
+      </c>
+      <c r="Q96" s="17">
+        <v>73</v>
+      </c>
+      <c r="R96" s="22">
+        <v>96</v>
+      </c>
+      <c r="S96" s="22">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>10</v>
+      </c>
+      <c r="B97">
+        <v>1.49016462345485</v>
+      </c>
+      <c r="C97">
+        <v>1.6524052009576999</v>
+      </c>
+      <c r="D97">
+        <v>1.3696100871219199</v>
+      </c>
+      <c r="E97">
+        <v>1.35315082583033</v>
+      </c>
+      <c r="F97">
+        <v>1.31907575034854</v>
+      </c>
+      <c r="G97">
+        <v>1.2981208490398</v>
+      </c>
+      <c r="H97">
+        <v>1.30489711376144</v>
+      </c>
+      <c r="I97">
+        <v>1.26122990273998</v>
+      </c>
+      <c r="J97">
+        <v>1.53878500185916</v>
+      </c>
+      <c r="K97">
+        <v>1.44111093543391</v>
+      </c>
+      <c r="L97">
+        <v>1.37684480439765</v>
+      </c>
+      <c r="M97">
+        <v>1.3033661450552601</v>
+      </c>
+      <c r="N97">
+        <v>1.30314441670938</v>
+      </c>
+      <c r="O97" s="1">
+        <v>6</v>
+      </c>
+      <c r="P97" s="10">
+        <v>606</v>
+      </c>
+      <c r="Q97" s="17">
+        <v>73</v>
+      </c>
+      <c r="R97" s="22">
+        <v>96</v>
+      </c>
+      <c r="S97" s="22">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>10</v>
+      </c>
+      <c r="B98">
+        <v>1.46855143861149</v>
+      </c>
+      <c r="C98">
+        <v>1.8847556661648599</v>
+      </c>
+      <c r="D98">
+        <v>1.3642747606743</v>
+      </c>
+      <c r="E98">
+        <v>1.37018198077834</v>
+      </c>
+      <c r="F98">
+        <v>1.3051689189834701</v>
+      </c>
+      <c r="G98">
+        <v>1.2893313364648999</v>
+      </c>
+      <c r="H98">
+        <v>1.32983725828248</v>
+      </c>
+      <c r="I98">
+        <v>1.2492532601386801</v>
+      </c>
+      <c r="J98">
+        <v>1.54468143178101</v>
+      </c>
+      <c r="K98">
+        <v>1.40732322679189</v>
+      </c>
+      <c r="L98">
+        <v>1.4157107718312301</v>
+      </c>
+      <c r="M98">
+        <v>1.2935825509698</v>
+      </c>
+      <c r="N98">
+        <v>1.33095374159687</v>
+      </c>
+      <c r="O98" s="1">
+        <v>7</v>
+      </c>
+      <c r="P98" s="10">
+        <v>607</v>
+      </c>
+      <c r="Q98" s="17">
+        <v>73</v>
+      </c>
+      <c r="R98" s="22">
+        <v>96</v>
+      </c>
+      <c r="S98" s="22">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>10</v>
+      </c>
+      <c r="B99">
+        <v>1.55845610118504</v>
+      </c>
+      <c r="C99">
+        <v>1.76133126255459</v>
+      </c>
+      <c r="D99">
+        <v>1.42540943173039</v>
+      </c>
+      <c r="E99">
+        <v>1.3809044695706101</v>
+      </c>
+      <c r="F99">
+        <v>1.3226799053488101</v>
+      </c>
+      <c r="G99">
+        <v>1.2527819447064401</v>
+      </c>
+      <c r="H99">
+        <v>1.3394697193601299</v>
+      </c>
+      <c r="I99">
+        <v>1.2081581745124399</v>
+      </c>
+      <c r="J99">
+        <v>1.64107593297887</v>
+      </c>
+      <c r="K99">
+        <v>1.5086797983776099</v>
+      </c>
+      <c r="L99">
+        <v>1.45415746047362</v>
+      </c>
+      <c r="M99">
+        <v>1.28060738450814</v>
+      </c>
+      <c r="N99">
+        <v>1.33987074322099</v>
+      </c>
+      <c r="O99" s="1">
+        <v>8</v>
+      </c>
+      <c r="P99" s="10">
+        <v>608</v>
+      </c>
+      <c r="Q99" s="17">
+        <v>73</v>
+      </c>
+      <c r="R99" s="22">
+        <v>96</v>
+      </c>
+      <c r="S99" s="22">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>10</v>
+      </c>
+      <c r="B100">
+        <v>1.54818332123055</v>
+      </c>
+      <c r="C100">
+        <v>1.6156725757172901</v>
+      </c>
+      <c r="D100">
+        <v>1.4828014587573499</v>
+      </c>
+      <c r="E100">
+        <v>1.4041963737188401</v>
+      </c>
+      <c r="F100">
+        <v>1.42687067086681</v>
+      </c>
+      <c r="G100">
+        <v>1.3771800832608201</v>
+      </c>
+      <c r="H100">
+        <v>1.3198240596738799</v>
+      </c>
+      <c r="I100">
+        <v>1.26643146021018</v>
+      </c>
+      <c r="J100">
+        <v>1.5548664035303399</v>
+      </c>
+      <c r="K100">
+        <v>1.5226773096471999</v>
+      </c>
+      <c r="L100">
+        <v>1.4851345847766799</v>
+      </c>
+      <c r="M100">
+        <v>1.3215435285039101</v>
+      </c>
+      <c r="N100">
+        <v>1.32872350681587</v>
+      </c>
+      <c r="O100" s="1">
+        <v>9</v>
+      </c>
+      <c r="P100" s="10">
+        <v>609</v>
+      </c>
+      <c r="Q100" s="17">
+        <v>73</v>
+      </c>
+      <c r="R100" s="22">
+        <v>96</v>
+      </c>
+      <c r="S100" s="22">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>10</v>
+      </c>
+      <c r="B101">
+        <v>1.4024104084150899</v>
+      </c>
+      <c r="C101">
+        <v>1.84937912495301</v>
+      </c>
+      <c r="D101">
+        <v>1.3526895215336401</v>
+      </c>
+      <c r="E101">
+        <v>1.3451199875044499</v>
+      </c>
+      <c r="F101">
+        <v>1.2582126681054</v>
+      </c>
+      <c r="G101">
+        <v>1.4305393552119701</v>
+      </c>
+      <c r="H101">
+        <v>1.3546475201261801</v>
+      </c>
+      <c r="I101">
+        <v>1.28647559322669</v>
+      </c>
+      <c r="J101">
+        <v>1.3622297874731</v>
+      </c>
+      <c r="K101">
+        <v>1.3490208347116199</v>
+      </c>
+      <c r="L101">
+        <v>1.38837871970018</v>
+      </c>
+      <c r="M101">
+        <v>1.3316671036696399</v>
+      </c>
+      <c r="N101">
+        <v>1.3346609585795499</v>
+      </c>
+      <c r="O101" s="1">
+        <v>10</v>
+      </c>
+      <c r="P101" s="10">
+        <v>610</v>
+      </c>
+      <c r="Q101" s="17">
+        <v>65</v>
+      </c>
+      <c r="R101" s="22">
+        <v>96</v>
+      </c>
+      <c r="S101" s="22">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
